--- a/Øl.xlsx
+++ b/Øl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emila\Kode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D606E8E0-AF59-418E-A6E8-C8BE2FED5F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B250CEFE-7C8F-48E2-B44D-6DDB7EA2B892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D70110D-6F1D-4CE0-B3DC-EACFE9EFD566}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Karla Efterspørgsel</t>
   </si>
@@ -42,7 +42,10 @@
     <t>Viggo Efterspørgsel</t>
   </si>
   <si>
-    <t>Pris Karla</t>
+    <t>Karla Pris</t>
+  </si>
+  <si>
+    <t>Viggo Pris</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +425,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
